--- a/Datafile.xlsx
+++ b/Datafile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohitbisen\IdeaProjects\Icehrmassignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B374D8FA-C6C1-4999-B57A-0B9B3A7B24E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591EB904-BCF2-4F7C-BFFE-835640A6FA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DF518F5F-2CF9-4B26-B5DD-600F554ABC8B}"/>
   </bookViews>
@@ -409,13 +409,15 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
